--- a/po_analysis_by_asin/B08YMVNQDJ_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMVNQDJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -815,6 +816,607 @@
       </c>
       <c r="B11" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-82.55576487472483</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.4741474169105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-77.87793396801749</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112.6357665856652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-72.98878879295084</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.8288075110436</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-74.54638936851038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>122.2100664609119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-69.52675394294334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116.691120601032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-61.3351914853712</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.0594418075132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-53.05822638077785</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128.8677521141265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-55.0998967051517</v>
+      </c>
+      <c r="D9" t="n">
+        <v>129.1090611084082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-53.67185504735634</v>
+      </c>
+      <c r="D10" t="n">
+        <v>122.1224923066083</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-57.84711423064734</v>
+      </c>
+      <c r="D11" t="n">
+        <v>132.0748269490673</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-54.19740273828238</v>
+      </c>
+      <c r="D12" t="n">
+        <v>131.8770184225355</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-47.25033111498943</v>
+      </c>
+      <c r="D13" t="n">
+        <v>134.6377638857275</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-45.48494322900258</v>
+      </c>
+      <c r="D14" t="n">
+        <v>132.5019925701082</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-48.34275305730831</v>
+      </c>
+      <c r="D15" t="n">
+        <v>137.7249664007612</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-44.7972484446492</v>
+      </c>
+      <c r="D16" t="n">
+        <v>142.9146759832799</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>49</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-40.74077821776905</v>
+      </c>
+      <c r="D17" t="n">
+        <v>142.5580275705223</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>51</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-37.5580073684613</v>
+      </c>
+      <c r="D18" t="n">
+        <v>146.2085759257067</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-38.49335167500242</v>
+      </c>
+      <c r="D19" t="n">
+        <v>148.4231229668963</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>54</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-42.49973791833027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>146.5705100448327</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-37.03998490123382</v>
+      </c>
+      <c r="D21" t="n">
+        <v>146.2277176188048</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-37.46907305122018</v>
+      </c>
+      <c r="D22" t="n">
+        <v>153.5360103794071</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>58</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-34.06492859063184</v>
+      </c>
+      <c r="D23" t="n">
+        <v>153.3068558095313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-28.26227888231784</v>
+      </c>
+      <c r="D24" t="n">
+        <v>155.8024419284108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>61</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-32.47931889419844</v>
+      </c>
+      <c r="D25" t="n">
+        <v>147.7891946083631</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>63</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-28.79510301241102</v>
+      </c>
+      <c r="D26" t="n">
+        <v>156.3952250318258</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-27.11805953162811</v>
+      </c>
+      <c r="D27" t="n">
+        <v>156.9733956714904</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>66</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-28.73357750045034</v>
+      </c>
+      <c r="D28" t="n">
+        <v>163.218302577838</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>67</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-26.5840973423892</v>
+      </c>
+      <c r="D29" t="n">
+        <v>157.2277861187597</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>69</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-16.57223547148068</v>
+      </c>
+      <c r="D30" t="n">
+        <v>158.5358652728869</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>70</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-26.63477937185708</v>
+      </c>
+      <c r="D31" t="n">
+        <v>168.937244390836</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-15.74406874780555</v>
+      </c>
+      <c r="D32" t="n">
+        <v>166.4499120325148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>73</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-19.45440920858852</v>
+      </c>
+      <c r="D33" t="n">
+        <v>177.217478372237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>75</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-22.50818350724959</v>
+      </c>
+      <c r="D34" t="n">
+        <v>172.4730113596667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>76</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-15.17975493087823</v>
+      </c>
+      <c r="D35" t="n">
+        <v>161.8645609148895</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>78</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-15.4096478994843</v>
+      </c>
+      <c r="D36" t="n">
+        <v>171.3124457059841</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>79</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-10.31503533371121</v>
+      </c>
+      <c r="D37" t="n">
+        <v>171.706670860359</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>81</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-16.33025366691784</v>
+      </c>
+      <c r="D38" t="n">
+        <v>174.4084756984107</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>82</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-8.062255811298769</v>
+      </c>
+      <c r="D39" t="n">
+        <v>174.3091075995058</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>84</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-6.669504974923952</v>
+      </c>
+      <c r="D40" t="n">
+        <v>176.9398882963863</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>85</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-17.60126562928431</v>
+      </c>
+      <c r="D41" t="n">
+        <v>180.1255934127778</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08YMVNQDJ_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMVNQDJ_po_data.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,16 +848,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -866,12 +856,6 @@
       <c r="B2" t="n">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
-        <v>-82.55576487472483</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.4741474169105</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -880,12 +864,6 @@
       <c r="B3" t="n">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
-        <v>-77.87793396801749</v>
-      </c>
-      <c r="D3" t="n">
-        <v>112.6357665856652</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,12 +872,6 @@
       <c r="B4" t="n">
         <v>18</v>
       </c>
-      <c r="C4" t="n">
-        <v>-72.98878879295084</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.8288075110436</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -908,12 +880,6 @@
       <c r="B5" t="n">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
-        <v>-74.54638936851038</v>
-      </c>
-      <c r="D5" t="n">
-        <v>122.2100664609119</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -922,12 +888,6 @@
       <c r="B6" t="n">
         <v>29</v>
       </c>
-      <c r="C6" t="n">
-        <v>-69.52675394294334</v>
-      </c>
-      <c r="D6" t="n">
-        <v>116.691120601032</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -936,12 +896,6 @@
       <c r="B7" t="n">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
-        <v>-61.3351914853712</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.0594418075132</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -950,12 +904,6 @@
       <c r="B8" t="n">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
-        <v>-53.05822638077785</v>
-      </c>
-      <c r="D8" t="n">
-        <v>128.8677521141265</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -964,12 +912,6 @@
       <c r="B9" t="n">
         <v>36</v>
       </c>
-      <c r="C9" t="n">
-        <v>-55.0998967051517</v>
-      </c>
-      <c r="D9" t="n">
-        <v>129.1090611084082</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -978,12 +920,6 @@
       <c r="B10" t="n">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>-53.67185504735634</v>
-      </c>
-      <c r="D10" t="n">
-        <v>122.1224923066083</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -992,12 +928,6 @@
       <c r="B11" t="n">
         <v>41</v>
       </c>
-      <c r="C11" t="n">
-        <v>-57.84711423064734</v>
-      </c>
-      <c r="D11" t="n">
-        <v>132.0748269490673</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1006,12 +936,6 @@
       <c r="B12" t="n">
         <v>42</v>
       </c>
-      <c r="C12" t="n">
-        <v>-54.19740273828238</v>
-      </c>
-      <c r="D12" t="n">
-        <v>131.8770184225355</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1020,12 +944,6 @@
       <c r="B13" t="n">
         <v>44</v>
       </c>
-      <c r="C13" t="n">
-        <v>-47.25033111498943</v>
-      </c>
-      <c r="D13" t="n">
-        <v>134.6377638857275</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1034,12 +952,6 @@
       <c r="B14" t="n">
         <v>45</v>
       </c>
-      <c r="C14" t="n">
-        <v>-45.48494322900258</v>
-      </c>
-      <c r="D14" t="n">
-        <v>132.5019925701082</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1048,12 +960,6 @@
       <c r="B15" t="n">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
-        <v>-48.34275305730831</v>
-      </c>
-      <c r="D15" t="n">
-        <v>137.7249664007612</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1062,12 +968,6 @@
       <c r="B16" t="n">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>-44.7972484446492</v>
-      </c>
-      <c r="D16" t="n">
-        <v>142.9146759832799</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1076,12 +976,6 @@
       <c r="B17" t="n">
         <v>49</v>
       </c>
-      <c r="C17" t="n">
-        <v>-40.74077821776905</v>
-      </c>
-      <c r="D17" t="n">
-        <v>142.5580275705223</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1090,12 +984,6 @@
       <c r="B18" t="n">
         <v>51</v>
       </c>
-      <c r="C18" t="n">
-        <v>-37.5580073684613</v>
-      </c>
-      <c r="D18" t="n">
-        <v>146.2085759257067</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1104,12 +992,6 @@
       <c r="B19" t="n">
         <v>52</v>
       </c>
-      <c r="C19" t="n">
-        <v>-38.49335167500242</v>
-      </c>
-      <c r="D19" t="n">
-        <v>148.4231229668963</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1118,12 +1000,6 @@
       <c r="B20" t="n">
         <v>54</v>
       </c>
-      <c r="C20" t="n">
-        <v>-42.49973791833027</v>
-      </c>
-      <c r="D20" t="n">
-        <v>146.5705100448327</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1132,12 +1008,6 @@
       <c r="B21" t="n">
         <v>55</v>
       </c>
-      <c r="C21" t="n">
-        <v>-37.03998490123382</v>
-      </c>
-      <c r="D21" t="n">
-        <v>146.2277176188048</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1146,12 +1016,6 @@
       <c r="B22" t="n">
         <v>57</v>
       </c>
-      <c r="C22" t="n">
-        <v>-37.46907305122018</v>
-      </c>
-      <c r="D22" t="n">
-        <v>153.5360103794071</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1160,12 +1024,6 @@
       <c r="B23" t="n">
         <v>58</v>
       </c>
-      <c r="C23" t="n">
-        <v>-34.06492859063184</v>
-      </c>
-      <c r="D23" t="n">
-        <v>153.3068558095313</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1174,12 +1032,6 @@
       <c r="B24" t="n">
         <v>60</v>
       </c>
-      <c r="C24" t="n">
-        <v>-28.26227888231784</v>
-      </c>
-      <c r="D24" t="n">
-        <v>155.8024419284108</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1188,12 +1040,6 @@
       <c r="B25" t="n">
         <v>61</v>
       </c>
-      <c r="C25" t="n">
-        <v>-32.47931889419844</v>
-      </c>
-      <c r="D25" t="n">
-        <v>147.7891946083631</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1202,12 +1048,6 @@
       <c r="B26" t="n">
         <v>63</v>
       </c>
-      <c r="C26" t="n">
-        <v>-28.79510301241102</v>
-      </c>
-      <c r="D26" t="n">
-        <v>156.3952250318258</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1216,12 +1056,6 @@
       <c r="B27" t="n">
         <v>64</v>
       </c>
-      <c r="C27" t="n">
-        <v>-27.11805953162811</v>
-      </c>
-      <c r="D27" t="n">
-        <v>156.9733956714904</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1230,12 +1064,6 @@
       <c r="B28" t="n">
         <v>66</v>
       </c>
-      <c r="C28" t="n">
-        <v>-28.73357750045034</v>
-      </c>
-      <c r="D28" t="n">
-        <v>163.218302577838</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1244,12 +1072,6 @@
       <c r="B29" t="n">
         <v>67</v>
       </c>
-      <c r="C29" t="n">
-        <v>-26.5840973423892</v>
-      </c>
-      <c r="D29" t="n">
-        <v>157.2277861187597</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1258,12 +1080,6 @@
       <c r="B30" t="n">
         <v>69</v>
       </c>
-      <c r="C30" t="n">
-        <v>-16.57223547148068</v>
-      </c>
-      <c r="D30" t="n">
-        <v>158.5358652728869</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1272,12 +1088,6 @@
       <c r="B31" t="n">
         <v>70</v>
       </c>
-      <c r="C31" t="n">
-        <v>-26.63477937185708</v>
-      </c>
-      <c r="D31" t="n">
-        <v>168.937244390836</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1286,12 +1096,6 @@
       <c r="B32" t="n">
         <v>72</v>
       </c>
-      <c r="C32" t="n">
-        <v>-15.74406874780555</v>
-      </c>
-      <c r="D32" t="n">
-        <v>166.4499120325148</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1300,12 +1104,6 @@
       <c r="B33" t="n">
         <v>73</v>
       </c>
-      <c r="C33" t="n">
-        <v>-19.45440920858852</v>
-      </c>
-      <c r="D33" t="n">
-        <v>177.217478372237</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1314,12 +1112,6 @@
       <c r="B34" t="n">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>-22.50818350724959</v>
-      </c>
-      <c r="D34" t="n">
-        <v>172.4730113596667</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1328,12 +1120,6 @@
       <c r="B35" t="n">
         <v>76</v>
       </c>
-      <c r="C35" t="n">
-        <v>-15.17975493087823</v>
-      </c>
-      <c r="D35" t="n">
-        <v>161.8645609148895</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1342,12 +1128,6 @@
       <c r="B36" t="n">
         <v>78</v>
       </c>
-      <c r="C36" t="n">
-        <v>-15.4096478994843</v>
-      </c>
-      <c r="D36" t="n">
-        <v>171.3124457059841</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1356,12 +1136,6 @@
       <c r="B37" t="n">
         <v>79</v>
       </c>
-      <c r="C37" t="n">
-        <v>-10.31503533371121</v>
-      </c>
-      <c r="D37" t="n">
-        <v>171.706670860359</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1370,12 +1144,6 @@
       <c r="B38" t="n">
         <v>81</v>
       </c>
-      <c r="C38" t="n">
-        <v>-16.33025366691784</v>
-      </c>
-      <c r="D38" t="n">
-        <v>174.4084756984107</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1384,12 +1152,6 @@
       <c r="B39" t="n">
         <v>82</v>
       </c>
-      <c r="C39" t="n">
-        <v>-8.062255811298769</v>
-      </c>
-      <c r="D39" t="n">
-        <v>174.3091075995058</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1398,12 +1160,6 @@
       <c r="B40" t="n">
         <v>84</v>
       </c>
-      <c r="C40" t="n">
-        <v>-6.669504974923952</v>
-      </c>
-      <c r="D40" t="n">
-        <v>176.9398882963863</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1411,12 +1167,6 @@
       </c>
       <c r="B41" t="n">
         <v>85</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-17.60126562928431</v>
-      </c>
-      <c r="D41" t="n">
-        <v>180.1255934127778</v>
       </c>
     </row>
   </sheetData>
